--- a/data/trans_dic/P22_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P22_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con grado de felicidad &lt;=7 en la última semana</t>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,12%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>43,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>51,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,46%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>41,16%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39,03%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>42,69%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>39,36%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,93; 42,05</t>
+          <t>28,69; 43,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,65; 40,23</t>
+          <t>25,54; 41,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,61; 43,66</t>
+          <t>25,25; 41,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,88; 50,41</t>
+          <t>21,17; 39,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,17; 49,68</t>
+          <t>38,78; 52,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,67; 52,09</t>
+          <t>36,46; 50,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,73; 44,71</t>
+          <t>43,76; 58,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,17; 43,84</t>
+          <t>39,38; 55,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,32; 46,25</t>
+          <t>36,21; 45,96</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>33,84; 44,16</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36,2; 48,4</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>32,59; 45,8</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>41,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>42,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>41,14%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37,24%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38,15%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,97; 39,72</t>
+          <t>28,1; 46,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,83; 38,26</t>
+          <t>24,91; 42,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,52; 40,36</t>
+          <t>27,98; 46,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,73; 49,45</t>
+          <t>25,4; 42,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,54; 47,78</t>
+          <t>37,32; 53,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,97; 46,88</t>
+          <t>33,97; 48,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,94; 42,51</t>
+          <t>33,47; 49,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,12; 40,58</t>
+          <t>33,91; 53,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,46; 40,71</t>
+          <t>35,52; 47,2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31,45; 43,37</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32,67; 45,22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31,78; 45,18</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>60,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>53,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>64,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>41,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,1%</t>
+          <t>52,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>47,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>50,97%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52,97%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>55,03%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>50,93%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,51; 61,78</t>
+          <t>36,67; 84,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,81; 57,6</t>
+          <t>30,85; 78,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,01; 66,95</t>
+          <t>38,98; 83,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,78; 55,34</t>
+          <t>42,95; 86,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,44; 55,6</t>
+          <t>26,1; 56,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,8; 62,43</t>
+          <t>35,36; 68,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,99; 53,47</t>
+          <t>30,23; 62,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,9; 51,09</t>
+          <t>21,03; 53,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,73; 59,48</t>
+          <t>37,8; 68,63</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39,47; 69,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>40,57; 70,65</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>36,25; 67,33</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,74%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>44,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>42,21%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39,68%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>42,45%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>40,13%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,08; 39,04</t>
+          <t>33,41; 46,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,75; 37,18</t>
+          <t>30,07; 43,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,0; 41,27</t>
+          <t>31,65; 44,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,88; 47,84</t>
+          <t>28,96; 43,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,7; 46,47</t>
+          <t>39,96; 50,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,96; 47,98</t>
+          <t>38,3; 47,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,48; 42,42</t>
+          <t>41,86; 52,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,98; 40,89</t>
+          <t>38,58; 49,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,38; 43,19</t>
+          <t>38,42; 46,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>35,62; 43,87</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>38,25; 46,6</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>35,54; 45,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,59%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>142944</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>125796</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>127582</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>161668</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>229698</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>180436</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>208923</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>262017</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>372643</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>306232</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>336504</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>423685</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>114338; 173071</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>93532; 152592</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>96143; 158466</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>109195; 203384</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>196488; 266815</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>152583; 211028</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>178301; 238441</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>220791; 311816</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>327799; 416042</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>265528; 346486</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>285328; 381545</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>350904; 493045</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>129853</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>104605</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>116360</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>135974</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>190919</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>139264</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>137666</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>183328</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>320772</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>243869</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>254026</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>319302</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>100313; 164320</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>78833; 135645</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>89171; 148583</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>104263; 173642</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>157722; 225463</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>114950; 165773</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>111357; 166258</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>144634; 227031</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>276955; 368030</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>205968; 284014</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>212810; 294578</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>265990; 378183</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61770</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42848</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53402</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>76790</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41669</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>41568</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>37108</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40731</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>103439</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>84417</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>90509</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>117521</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>37314; 85844</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24561; 62823</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33367; 71116</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>51277; 103708</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26404; 57003</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28203; 54798</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23842; 49106</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23419; 59152</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>76719; 139268</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>62902; 110604</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>66715; 116198</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>83643; 155355</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>334568</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>273250</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>297344</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>374432</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>462286</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>361268</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>383696</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>486076</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>796854</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>634518</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>681039</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>860508</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>286472; 397999</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>229208; 330312</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>248443; 353216</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>302819; 450826</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>411782; 516348</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>320476; 400648</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>342837; 426651</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>423842; 548466</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>725235; 868887</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>569519; 701508</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>613532; 747508</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>762119; 965407</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
